--- a/data/substrate_comparisons/final_15_cmpnds_tested.xlsx
+++ b/data/substrate_comparisons/final_15_cmpnds_tested.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/University_of_Minnesota/Wackett_Lab/github/synbio-data-analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/University_of_Minnesota/Wackett_Lab/github/synbio-data-analysis/data/substrate_comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1568FF19-336F-4C44-BD44-D56A09FEFF5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB101417-A496-5346-92BB-25BB8F6F2A94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24700" yWindow="2360" windowWidth="22820" windowHeight="14800" xr2:uid="{05FBBE67-27AD-554B-8C65-1DCC990B72ED}"/>
   </bookViews>
@@ -129,12 +129,6 @@
     <t>4-nitrophenyl 3-(5-phenyl-1,3,4-oxadiazol-2-yl)propanoate</t>
   </si>
   <si>
-    <t>O=C(CCC1CCCC1)CC2=CC=C([N+]([O-])=O)C=C2</t>
-  </si>
-  <si>
-    <t>4-nitrophenyl 4-cyclopentylbutan-2-one</t>
-  </si>
-  <si>
     <t>hexanoate</t>
   </si>
   <si>
@@ -266,13 +260,19 @@
   </si>
   <si>
     <t>CCCCCCCCCC(OC1=CC=C([N+]([O-])=O)C=C1)=O</t>
+  </si>
+  <si>
+    <t>O=C(OC1=CC=C(C=C1)[N+]([O-])=O)CCC2CCCC2</t>
+  </si>
+  <si>
+    <t>4-nitrophenyl 3-cyclopentylpropanoate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,6 +305,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,11 +332,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,7 +655,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -674,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -781,7 +788,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>33</v>
@@ -790,51 +797,52 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>